--- a/handywedge-master/機能一覧.xlsx
+++ b/handywedge-master/機能一覧.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="660" windowWidth="31240" windowHeight="20000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="1980" windowWidth="31240" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>メール送信</t>
     <rPh sb="3" eb="5">
@@ -97,10 +97,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>UIコンポーネント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>国際化</t>
     <rPh sb="0" eb="3">
       <t>コクサイカ</t>
@@ -147,22 +143,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>再利用可能な画面部品、PrimeFacesを採用</t>
-    <rPh sb="0" eb="5">
-      <t>サイリヨウカノウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ブヒン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>サイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PDF生成エンジン、JaspeRreportsをラッピング</t>
     <rPh sb="3" eb="5">
       <t>セイセイ</t>
@@ -197,34 +177,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>RESTトークン認証</t>
-    <rPh sb="8" eb="10">
-      <t>ニンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>GET、POST、PUT、DELETEメソッドのREST APIを公開するためのインターフェース</t>
     <rPh sb="33" eb="35">
       <t>koukaiスル</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>トークン認証を必要とするREST APIを公開するためのインターフェース</t>
-    <rPh sb="7" eb="9">
-      <t>ヒツヨウトスル</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>コウカイスルタメノ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>組込
-REST API</t>
-    <rPh sb="0" eb="2">
-      <t>クミコミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -416,13 +371,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>データベース関連ログ</t>
-    <rPh sb="6" eb="8">
-      <t>カンレン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>デバッグログ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -447,37 +395,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>トレース</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リクエスト毎にリクエストIDを採番しデバッグログに出力</t>
-    <rPh sb="15" eb="17">
-      <t>saibanシ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>性能ログ</t>
-    <rPh sb="0" eb="2">
-      <t>セイノウログ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リクエスト、ライブラリの処理時間をデバッグログに出力</t>
-    <rPh sb="12" eb="16">
-      <t>ショリジカn</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザー管理</t>
     <rPh sb="4" eb="6">
       <t>カンリ</t>
@@ -506,16 +423,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>パスワードによるログイン機能、ログインユーザー情報はSessionコンテクストに格納</t>
-    <rPh sb="12" eb="14">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>カクノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ロール</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -601,6 +508,41 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>フクゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードによるログイン機能、ログインユーザー情報はSessionコンテクストに格納</t>
+  </si>
+  <si>
+    <t>ログイン機能</t>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQLトレース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性能トレース</t>
+    <rPh sb="0" eb="2">
+      <t>セイノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リクエスト、ライブラリの処理時間をデバッグログに出力
+リクエストIDを採番する</t>
+    <rPh sb="12" eb="16">
+      <t>ショリジカn</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>サイバン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -609,7 +551,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -618,12 +560,14 @@
     <font>
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
       <u/>
       <sz val="22"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -633,6 +577,7 @@
     <font>
       <sz val="16"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -640,6 +585,22 @@
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -657,7 +618,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -717,11 +678,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -749,6 +725,12 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -770,15 +752,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1113,7 +1097,7 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
       <selection sqref="A1:E1"/>
@@ -1128,19 +1112,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="A1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
       <c r="E2" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="10" customFormat="1" ht="19" x14ac:dyDescent="0.15">
@@ -1156,454 +1140,415 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="12">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="14">
         <v>1</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="17" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="15"/>
+        <v>3</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="15"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="5">
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="16"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A7" s="14">
+        <v>2</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="15"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="5">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="15"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="5">
         <v>3</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="5">
+      <c r="D9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="16"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A11" s="14">
         <v>3</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="18" t="s">
+      <c r="B11" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="15"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="5">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="16"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A14" s="14">
+        <v>4</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="15"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="5">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="15"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="5">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="15"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="5">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="16"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="14">
+        <v>5</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A20" s="15"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="5">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="15"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="5">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A22" s="15"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="5">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A23" s="15"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="5">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="15"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="18"/>
-    </row>
-    <row r="8" spans="1:5" ht="28" x14ac:dyDescent="0.15">
-      <c r="A8" s="12">
+      <c r="D24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="15"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="5">
+        <v>7</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="16"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="14">
+        <v>6</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="15"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="5">
         <v>2</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="5">
+      <c r="D28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A29" s="15"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="5">
+        <v>3</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="16"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="14">
+        <v>7</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="5">
         <v>1</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="5">
+      <c r="D31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="15"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="5">
         <v>2</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="5">
+      <c r="D32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="15"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="5">
         <v>3</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="18"/>
-    </row>
-    <row r="12" spans="1:5" ht="28" x14ac:dyDescent="0.15">
-      <c r="A12" s="12">
-        <v>3</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="13"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="5">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="13"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="5">
-        <v>3</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="14"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="18"/>
-    </row>
-    <row r="16" spans="1:5" ht="28" x14ac:dyDescent="0.15">
-      <c r="A16" s="12">
-        <v>4</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="5">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="13"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="5">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="28" x14ac:dyDescent="0.15">
-      <c r="A18" s="13"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="5">
-        <v>3</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="28" x14ac:dyDescent="0.15">
-      <c r="A19" s="13"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="5">
-        <v>4</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="13"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="5">
-        <v>5</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="13"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="5">
-        <v>6</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="13"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="5">
-        <v>7</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="13"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="5">
-        <v>8</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="14"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="18"/>
-    </row>
-    <row r="25" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="12">
-        <v>5</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="5">
-        <v>1</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="28" x14ac:dyDescent="0.15">
-      <c r="A26" s="13"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="5">
-        <v>2</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E33" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="13"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="5">
-        <v>3</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="14"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="18"/>
-    </row>
-    <row r="29" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="12">
-        <v>6</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="5">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="13"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="5">
-        <v>2</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="13"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="5">
-        <v>3</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="13"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="5">
-        <v>4</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="14"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="18"/>
-    </row>
-    <row r="34" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="12">
-        <v>7</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="5">
-        <v>1</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="13"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="5">
-        <v>2</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="13"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="5">
-        <v>3</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="14"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="18"/>
-    </row>
-    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="E39" s="6"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="16"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="11"/>
+    </row>
+    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="E36" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="B16:B24"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="B27:B30"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="A7:A10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.79000000000000015" right="0.79000000000000015" top="0.98" bottom="0.98" header="0.51" footer="0.51"/>
